--- a/biology/Botanique/Acrocomia/Acrocomia.xlsx
+++ b/biology/Botanique/Acrocomia/Acrocomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocomia est un genre de palmiers de la famille des Arecaceae natif des régions tropicales d'Amérique, du sud du Mexique et du sud des Caraïbes jusqu'au Paraguay et nord de l'Argentine. Il contient les espèces suivantes :
 Acrocomia aculeata
@@ -513,7 +525,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (1 février 2019)[2], Catalogue of Life                                   (1 février 2019)[3] et The Plant List            (1 février 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (1 février 2019), Catalogue of Life                                   (1 février 2019) et The Plant List            (1 février 2019) :
 Acrocomia aculeata (Jacq.) Lodd. ex Mart.
 Acrocomia crispa (Kunth) C.F.Baker ex Becc.
 Acrocomia emensis (Toledo) Lorenzi
@@ -559,14 +575,14 @@
 Acrocomia intumescens Drude
 Acrocomia media O.F.Cook
 Acrocomia totai Mart.
-Selon GRIN            (1 février 2019)[5] :
+Selon GRIN            (1 février 2019) :
 Acrocomia aculeata (Jacq.) Lodd. &amp; al. ex Mart.
 Acrocomia spp.
-Selon ITIS      (1 février 2019)[6] :
+Selon ITIS      (1 février 2019) :
 Acrocomia aculeata (Jacq.) Lodd. ex Mart.
 Acrocomia media O.F. Cook
 Acrocomia totai Mart.
-Selon World Checklist of Selected Plant Families (WCSP)  (1 février 2019)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (1 février 2019) :
 Acrocomia aculeata (Jacq.) Lodd. ex R.Keith (1834)
 Acrocomia corumbaensi S.A.Vianna (2017)
 Acrocomia crispa (Kunth) C.F.Baker ex Becc. (1912)
@@ -576,7 +592,7 @@
 Acrocomia intumescens Drude (1881)
 Acrocomia media O.F.Cook (1901)
 Acrocomia totai Mart. (1844)
-Selon Tropicos                                           (1 février 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 février 2019) (Attention liste brute contenant possiblement des synonymes) :
 Acrocomia aculeata (Jacq.) Lodd. ex Mart.
 Acrocomia antiguana L.H. Bailey
 Acrocomia antioquensis Posada-Arango
